--- a/biology/Botanique/Norantea/Norantea.xlsx
+++ b/biology/Botanique/Norantea/Norantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Norantea est un genre de plantes à fleurs de la famille des Marcgraviaceae, comportant 7 espèces néotropicale valides, et dont l'espèce type est Norantea guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « NORANTEA. (Tabula 220.)
 CAL. Perianthium penta, hexa, vel heptaphyllum ; foliolis coriaceis, ſubrotundis, acutis. Bractea utricularis, petiolata, ad ſummum tubuloſa, ore aperto, apice clauſo, è baſi calicis exſurgens. 
 COR. Petala quinque, ovata, acuta, unguibus receptaculo piſtilli inſerta. 
@@ -549,10 +563,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[3] :
-Espèces valides
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Norantea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norantea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Norantea aurantiaca Spruce Spruce ex Gilg &amp; Werderm.
 Norantea brachystachya (Rusby) (Rusby) de Roon
 Norantea goyasensis Cambess. Cambess.
@@ -560,7 +612,43 @@
 Norantea guianensis Aubl. Aubl.
 Norantea obovata Ruiz Ruiz &amp; Pav. ex G. Don
 Norantea rosulata (de (de Roon &amp; Bedell) Hammel
-Taxons non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Norantea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norantea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons non résolus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Norantea bahiensis Mart. Mart. ex Wittm.
 Norantea caccabion Delponte Delponte
 Norantea indica Sweet Sweet
